--- a/Souq/src/price/Souq/excel_46_partes_de_baixo.xlsx
+++ b/Souq/src/price/Souq/excel_46_partes_de_baixo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,20 +488,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CALCA BANGKOK</t>
+          <t>BOLSA AMOUR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-006.html</t>
+          <t>https://www.souqstore.com.br/bolsa-amour-02-08-04-022-005.html</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>728,00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,20 +525,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SAIA DIARA</t>
+          <t>BOLSA WINNIE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-diara-04-23-07-283-054.html</t>
+          <t>https://www.souqstore.com.br/bolsa-amalia-02-08-01-134-054.html</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>498,00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>348,00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,24 +562,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SAIA CINDY</t>
+          <t>BOLSA AMOUR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-cindy-04-26-08-316-053.html</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>798,00</t>
-        </is>
-      </c>
+          <t>https://www.souqstore.com.br/bolsa-amour-02-08-04-022-003.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -591,24 +591,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CALÇA JEANS LIGIA</t>
+          <t>BOLSA BONHEUR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-jeans-ligia-04-25-01-036-004.html</t>
+          <t>https://www.souqstore.com.br/bolsa-bonheur-02-08-04-023-029.html</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>548,00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>398,00</t>
-        </is>
-      </c>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -628,24 +624,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAIA MARCELY</t>
+          <t>BOLSA BISOU</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-marcely-04-26-08-302-024.html</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>898,00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>638,00</t>
-        </is>
-      </c>
+          <t>https://www.souqstore.com.br/bolsa-bisou-02-08-04-024-004.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -665,22 +653,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CALÇA AZUCENA</t>
+          <t>BOLSA DE TRICOT CUORE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-azucena-04-26-05-363-024.html</t>
+          <t>https://www.souqstore.com.br/bolsa-bisou-02-08-04-026-054.html</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>898,00</t>
+          <t>148,00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>698,00</t>
+          <t>74,00</t>
         </is>
       </c>
     </row>
@@ -702,22 +690,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CALÇA EDNA</t>
+          <t>NECESSAIRE TERE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-azucena-04-26-05-377-035.html</t>
+          <t>https://www.souqstore.com.br/necessaire-tere-02-14-01-238-054.html</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>748,00</t>
+          <t>199,00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>638,00</t>
+          <t>99,00</t>
         </is>
       </c>
     </row>
@@ -739,20 +727,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAIA SUCENA</t>
+          <t>NECESSAIRE TERESINHA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-sucena-04-26-08-314-051.html</t>
+          <t>https://www.souqstore.com.br/necessaire-teresinha-02-14-01-237-054.html</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -772,22 +764,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CALÇA EDNA</t>
+          <t>NECESSAIRE UBATUBA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-edna-04-26-05-377-030.html</t>
+          <t>https://www.souqstore.com.br/necessaire-ubatuba-02-14-01-234-001.html</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>748,00</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>598,00</t>
+          <t>39,00</t>
         </is>
       </c>
     </row>
@@ -809,24 +801,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CALÇA EVA</t>
+          <t>NECESSAIRE MALEVICH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-eva-04-26-05-378-054.html</t>
+          <t>https://www.souqstore.com.br/necessaire-malevich-02-14-01-243-006.html</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>598,00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>468,00</t>
-        </is>
-      </c>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -846,24 +834,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CALCA JATHARA</t>
+          <t>NECESSAIRE MALEVICH</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-jathara-04-26-05-383-035.html</t>
+          <t>https://www.souqstore.com.br/necessaire-malevich-02-14-01-243-009.html</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>798,00</t>
-        </is>
-      </c>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -883,24 +867,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CALÇA JEANS HEATHER</t>
+          <t>CLUTCH NAOMI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-jeans-heather-04-25-01-035-004.html</t>
+          <t>https://www.souqstore.com.br/clutch-naomi-02-08-02-125-008.html</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>498,00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>398,00</t>
-        </is>
-      </c>
+          <t>518,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -920,24 +900,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CALCA KAREN</t>
+          <t>CLUTCH MOANA AZUL E VERMELHO TAM U</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-karen-04-23-06-343-035.html</t>
+          <t>https://www.souqstore.com.br/clutch-moana-02-08-02-041-004.html</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>658,00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568,00</t>
-        </is>
-      </c>
+          <t>268,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -957,24 +933,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CALCA LATIFA</t>
+          <t>CUTCH MAURA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-latifa-04-26-05-385-024.html</t>
+          <t>https://www.souqstore.com.br/cutch-maura-02-08-02-124-007.html</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>798,00</t>
-        </is>
-      </c>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -994,22 +966,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CALCA LISA</t>
+          <t>NECESSAIRE TERESA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-lisa-04-26-05-369-035.html</t>
+          <t>https://www.souqstore.com.br/necessaire-teresa-02-14-01-236-054.html</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>698,00</t>
+          <t>159,00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>498,00</t>
+          <t>79,00</t>
         </is>
       </c>
     </row>
@@ -1031,24 +1003,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CALÇA MEG</t>
+          <t>CLUTCH LUISA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-meg-04-26-05-401-042.html</t>
+          <t>https://www.souqstore.com.br/clutch-mariel-02-08-02-121-002.html</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>898,00</t>
-        </is>
-      </c>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1068,24 +1036,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CALCA ROSALIA</t>
+          <t>CLUTCH LUISA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-rosala-04-26-05-384-008.html</t>
+          <t>https://www.souqstore.com.br/clutch-mariel-02-08-02-121-055.html</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>828,00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>598,00</t>
-        </is>
-      </c>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1105,24 +1069,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CALÇA SARJA ADRIANE</t>
+          <t>NECESSAIRE MACEIO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-sarja-adriane-04-23-06-355-007.html</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>658,00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>498,00</t>
-        </is>
-      </c>
+          <t>https://www.souqstore.com.br/necessaire-maceio-02-14-01-235-001.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1142,24 +1098,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CALÇA SUCENA</t>
+          <t>DECORATIVO DE RATTAN CAMERA COM ALÇA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-sucena-04-26-05-386-051.html</t>
+          <t>https://www.souqstore.com.br/decorativo-de-rattan-camera-com-alca-01-01-14-373-024.html</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>898,00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>698,00</t>
-        </is>
-      </c>
+          <t>268,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1179,24 +1131,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CALCA TATI</t>
+          <t>NECESSAIRE SHANGHAI MULTI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-tati-04-23-06-350-035.html</t>
+          <t>https://www.souqstore.com.br/necessaire-shanghai-multi-02-07-01-101-243.html</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>498,00</t>
-        </is>
-      </c>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1216,24 +1164,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CALÇA YARA</t>
+          <t>CLUTCH ITAJAI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-samanta-04-26-05-375-021.html</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>898,00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>758,00</t>
-        </is>
-      </c>
+          <t>https://www.souqstore.com.br/clutch-itajai-02-08-02-108-003.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1253,17 +1193,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SAIA GENEVRA BAP</t>
+          <t>CLUTCH JOINVILLE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-genevra-bap-04-23-07-289-054.html</t>
+          <t>https://www.souqstore.com.br/clutch-joinville-02-08-02-104-054.html</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>598,00</t>
+          <t>78,00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1286,20 +1226,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CALCA ISABELLE</t>
+          <t>CLUTCH ITAJAI</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-isabelle-04-26-05-416-04-26-05-416-005-36.html</t>
+          <t>https://www.souqstore.com.br/clutch-itajai-02-08-02-108-006.html</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1319,20 +1263,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SAIA HARUE</t>
+          <t>PORTA MOEDAS MAYA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-harue-04-26-08-327-054.html</t>
+          <t>https://www.souqstore.com.br/porta-moedas-maya-02-11-02-064-009.html</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>59,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>26,55</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1352,20 +1300,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAIA HELENA</t>
+          <t>CALCA SARJA LINA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-helena-04-26-08-331-054.html</t>
+          <t>https://www.souqstore.com.br/calca-sarja-lina-04-25-01-012-006.html</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1385,20 +1337,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CALCA ARUNA</t>
+          <t>CALCA GLAUCY</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-aruna-04-26-05-412-054.html</t>
+          <t>https://www.souqstore.com.br/calca-glaucy-04-26-05-218-024.html</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>498,00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1418,20 +1374,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CALCA ARUNA BLUE</t>
+          <t>CALCA CAROL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-aruna-blue-04-26-05-413-054.html</t>
+          <t>https://www.souqstore.com.br/calca-carol-04-26-05-268-054.html</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>498,00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1451,20 +1411,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CALCA JEANS MICHAELA</t>
+          <t>CALCA SARJA CARMENCITA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-jeans-michaela-04-25-01-037-004.html</t>
+          <t>https://www.souqstore.com.br/calca-sarja-carmencita-04-25-01-016-013.html</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>528,00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1484,16 +1448,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SAIA MUNIQUE</t>
+          <t>BERMUDA LINDSAY</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-munique-04-26-08-323-054.html</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>https://www.souqstore.com.br/bermuda-lindsay-04-26-56-006-007.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1513,20 +1485,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SAIA SKY</t>
+          <t>CALCA LINDSAY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-sky-04-23-07-287-002.html</t>
+          <t>https://www.souqstore.com.br/calca-lindsay-04-26-05-280-007.html</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1546,20 +1522,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CALCA TRICOT ELLA</t>
+          <t>CALCA SONIA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-tricot-ella-04-24-02-007-035.html</t>
+          <t>https://www.souqstore.com.br/calca-sonia-04-26-05-292-005.html</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>898,00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1579,20 +1559,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CALCA TRICOT SILA</t>
+          <t>CALCA ALITA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-tricot-sila-04-24-02-006-024.html</t>
+          <t>https://www.souqstore.com.br/calca-alita-04-26-05-288-035.html</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>768,00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1612,17 +1596,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SAIA WINNIE</t>
+          <t>PORTAMOEDA CAMEL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-winnie-04-26-08-348-024.html</t>
+          <t>https://www.souqstore.com.br/portamoeda-camel-02-11-02-042-012.html</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>998,00</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1645,20 +1629,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SAIA HERMIONE</t>
+          <t>CALCA SARJA LINDALVA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-hermione-04-26-08-319-053.html</t>
+          <t>https://www.souqstore.com.br/calca-sarja-lindalva-04-25-01-011-016.html</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1678,20 +1666,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CALÇA HERMIONE I</t>
+          <t>CALCA SARJA LINDALVA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-hermione-i-04-26-05-403-053.html</t>
+          <t>https://www.souqstore.com.br/calca-sarja-lindalva-04-25-01-011-007.html</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1711,20 +1703,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CALÇA ANGELA</t>
+          <t>CALCA SARJA SELENE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-angela-04-26-05-404-055.html</t>
+          <t>https://www.souqstore.com.br/calca-sarja-selene-04-25-01-019-006.html</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>898,00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>187,00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1744,16 +1740,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SAIA JUDY</t>
+          <t>CALCA SARJA SELENE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-judy-04-23-07-290-053.html</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>https://www.souqstore.com.br/calca-sarja-selene-04-25-01-019-004.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1773,17 +1777,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CALCA AZUCENA</t>
+          <t>BLAZER EVITA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-azucena-04-26-05-363-035.html</t>
+          <t>https://www.souqstore.com.br/blazer-evita-04-26-54-012-002.html</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>898,00</t>
+          <t>469,00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1806,15 +1810,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SAIA VIK</t>
+          <t>PORTAMOEDA MAINA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-vik-04-26-08-332-057.html</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>https://www.souqstore.com.br/portamoeda-maina-02-11-02-040-034.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1835,20 +1843,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SAIA MARION</t>
+          <t>CALCA YASU</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-marion-04-26-08-320-007.html</t>
+          <t>https://www.souqstore.com.br/calca-yasu-04-26-05-320-001.html</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>379,00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1868,16 +1880,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SAIA BELLA</t>
+          <t>CALCA NARCISA BLANCA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-bella-04-26-08-299-054.html</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+          <t>https://www.souqstore.com.br/calca-narcisa-blanca-04-26-05-250-035.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1897,17 +1917,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SAIA GAMORA</t>
+          <t>PORTA-JOIAS LIAM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-gamora-04-26-08-317-030.html</t>
+          <t>https://www.souqstore.com.br/portajoias-liam-02-16-03-044-006.html</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>998,00</t>
+          <t>238,00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1930,20 +1950,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SAIA MARISA</t>
+          <t>CASACO CASSANDRA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-marisa-04-23-07-286-030.html</t>
+          <t>https://www.souqstore.com.br/casaco-cassandra-04-26-17-041-035.html</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1963,20 +1987,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SAIA MAY</t>
+          <t>SAIA KELLY</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/saia-may-04-23-07-284-002.html</t>
+          <t>https://www.souqstore.com.br/saia-kelly-04-26-08-196-009.html</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>698,00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1996,17 +2024,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CALÇA MARGARETE</t>
+          <t>CALÇA ANGELA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-margarete-04-26-05-406-054.html</t>
+          <t>https://www.souqstore.com.br/calca-angela-04-26-05-404-055.html</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>998,00</t>
+          <t>898,00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2029,20 +2057,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CALÇA HERMIONE</t>
+          <t>CALCA VERONIKA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-hermione-04-26-05-402-053.html</t>
+          <t>https://www.souqstore.com.br/calca-veronika-04-26-05-246-035.html</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>147,00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2062,16 +2094,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CALCA ANDREA</t>
+          <t>CALCA ELIANE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-andrea-04-26-05-405-035.html</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+          <t>https://www.souqstore.com.br/calca-eliane-04-26-05-258-053.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2091,20 +2131,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CALÇA SOPHIE</t>
+          <t>SAIA LARI</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-sophie-04-23-06-353-035.html</t>
+          <t>https://www.souqstore.com.br/saia-lari-04-26-08-225-029.html</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>628,00</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2124,20 +2168,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CALÇA VIK</t>
+          <t>CALCA EKATERINA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-vik-04-26-05-408-057.html</t>
+          <t>https://www.souqstore.com.br/calca-ekaterina-04-26-05-293-054.html</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2157,20 +2205,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CALCA BENEDITA</t>
+          <t>CALA BANGKOK AMBER</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-benedita-04-26-05-394-007.html</t>
+          <t>https://www.souqstore.com.br/calca-bangkok-amber-04-26-05-198-005.html</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>758,00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>489,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>244,50</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2190,12 +2242,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CALCA CINDY</t>
+          <t>CALCA JATHARA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-cindy-04-26-05-393-053.html</t>
+          <t>https://www.souqstore.com.br/calca-jathara-04-26-05-383-035.html</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2203,7 +2255,11 @@
           <t>998,00</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2223,20 +2279,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CALCA BENEDITA</t>
+          <t>CALCA MELANIE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-benedita-04-26-05-394-001.html</t>
+          <t>https://www.souqstore.com.br/calca-melanie-04-23-06-346-021.html</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>758,00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2256,20 +2316,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CALÇA FRANCIS</t>
+          <t>BLAZER DEISE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-francis-04-26-05-390-007.html</t>
+          <t>https://www.souqstore.com.br/blazer-deise-04-26-54-009-054.html</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2289,20 +2353,24 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CALCA MARCELY</t>
+          <t>SAIA ZAIDA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-marcely-04-26-05-358-024.html</t>
+          <t>https://www.souqstore.com.br/saia-zaida-04-26-08-313-035.html</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>858,00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2322,20 +2390,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CALCA VERA LUCIA</t>
+          <t>CALCA KAMI</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-vera-lucia-04-26-05-397-001.html</t>
+          <t>https://www.souqstore.com.br/calca-kami-04-26-05-300-054.html</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>488,00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2355,20 +2427,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CALCA BANGKOK</t>
+          <t>BLAZER MARIS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-001.html</t>
+          <t>https://www.souqstore.com.br/blazer-maris-04-26-54-005-002.html</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>758,00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>269,70</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2388,20 +2464,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CALÇA MARCELY</t>
+          <t>CALCA KIKA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-marcely-04-26-05-358-006.html</t>
+          <t>https://www.souqstore.com.br/calca-kika-04-23-06-122-002.html</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>898,00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>339,00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2421,19 +2501,15 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CALCA KAUANA</t>
+          <t>JAQUETA MERA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-kauana-04-26-05-353-006.html</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>858,00</t>
-        </is>
-      </c>
+          <t>https://www.souqstore.com.br/jaqueta-mera-04-23-55-001-006.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2454,20 +2530,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CALCA BANGKOK COLOR</t>
+          <t>CALCA BIANCA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-bangkok-color-04-26-05-407-006.html</t>
+          <t>https://www.souqstore.com.br/calca-bianca-04-26-05-269-006.html</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2487,20 +2567,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CALCA BANGKOK COLOR</t>
+          <t>CALCA NORMA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-bangkok-color-04-26-05-407-055.html</t>
+          <t>https://www.souqstore.com.br/calca-norma-04-23-06-337-035.html</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2520,17 +2604,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CALCA GAMORA</t>
+          <t>CALCA ARUNA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-gamora-04-26-05-388-030.html</t>
+          <t>https://www.souqstore.com.br/calca-aruna-04-26-05-412-054.html</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>858,00</t>
+          <t>498,00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2553,12 +2637,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CALÇA JEANS BRIGITTE</t>
+          <t>CALCA ARUNA BLUE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-jeans-brigitte-04-23-06-356-004.html</t>
+          <t>https://www.souqstore.com.br/calca-aruna-blue-04-26-05-413-054.html</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2586,20 +2670,24 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CALÇA JEANS REGIANE</t>
+          <t>CALCA KAREN</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-jeans-regiane-04-23-06-357-004.html</t>
+          <t>https://www.souqstore.com.br/calca-karen-04-23-06-343-035.html</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>658,00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>568,00</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2619,20 +2707,24 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CALCA GUIOMAR</t>
+          <t>CASACO LAURA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-guiomar-04-23-06-349-030.html</t>
+          <t>https://www.souqstore.com.br/casaco-laura-04-26-17-030-054.html</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>528,00</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2652,20 +2744,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CALCA ELZIRA</t>
+          <t>CASACO ZILAH</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-elzira-04-26-05-382-030.html</t>
+          <t>https://www.souqstore.com.br/casaco-zilah-04-26-17-034-054.html</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2685,20 +2781,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CALÇA LEILA</t>
+          <t>SHORTS DAGNY</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-leila-04-26-05-399-002.html</t>
+          <t>https://www.souqstore.com.br/shorts-dagny-04-26-07-028-054.html</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>297,00</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2718,17 +2818,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CALCA DEBBY</t>
+          <t>SAIA MAY</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-debby-04-23-06-351-002.html</t>
+          <t>https://www.souqstore.com.br/saia-may-04-23-07-284-002.html</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>498,00</t>
+          <t>698,00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2751,17 +2851,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CALÇA YARA</t>
+          <t>CALÇA MARGARETE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-maju-04-26-05-375-002.html</t>
+          <t>https://www.souqstore.com.br/calca-margarete-04-26-05-406-054.html</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>898,00</t>
+          <t>998,00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2784,20 +2884,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CALCA BANGKOK</t>
+          <t>CALCA CARMELA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-024.html</t>
+          <t>https://www.souqstore.com.br/calca-carmela-04-26-05-284-057.html</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>758,00</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2817,20 +2921,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CALCA BANGKOK</t>
+          <t>MANHO EDITE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-002.html</t>
+          <t>https://www.souqstore.com.br/manho-edite-04-26-10-002-006.html</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>758,00</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2850,20 +2958,1077 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CALCA HARUE I</t>
+          <t>CALCA ANNIE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/calca-harue-i-04-26-05-410-049.html</t>
+          <t>https://www.souqstore.com.br/calca-annie-04-26-05-266-035.html</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>998,00</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>308,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CALCA NAYANA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-nayana-04-26-05-310-054.html</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CALCA MALLIKA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mallika-04-26-05-311-054.html</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CALCA PRIYANKA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-priyanka-04-26-05-312-054.html</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-001.html</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-006.html</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-002.html</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-016.html</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-030.html</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>348,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-024.html</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CALCA ALENE</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-alene-04-23-06-125-052.html</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MACACAO ANTONELLA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/macacao-antonella-04-26-09-019-002.html</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>539,00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CALCA MARIS</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-maris-04-26-05-265-002.html</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CASACO CINDY</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-cindy-04-26-17-033-007.html</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>859,00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BLUSA DRIELLE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-drielle-04-23-02-456-002.html</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BERMUDA ANA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bermuda-ana-04-26-56-005-001.html</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CAMISA ELSA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-elsa-04-26-01-338-002.html</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CALCA TAUANE</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tauane-04-23-06-116-043.html</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>BLAZER ELISABETA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-elisabeta-04-26-54-010-030.html</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CALCA TAUANE</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tauane-04-23-06-116-006.html</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CASACO DIRCE</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-dirce-04-26-17-029-054.html</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BLUSA ELIZA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-eliza-04-26-02-533-035.html</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CASACO ANNIE</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-annie-04-26-17-027-035.html</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CALCA SARJA FREYA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-freya-04-25-01-018-001.html</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CALCA SUZANA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-suzana-04-26-05-274-007.html</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CASACO LINDSAY</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-lindsay-04-26-17-031-007.html</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CALÇA ALENE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-alene-04-23-06-125-029.html</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>VESTIDO VITA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/vestido-vita-04-26-11-478-007.html</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CALCA ROBERTA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-roberta-04-23-06-333-035.html</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PARTES DE BAIXO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo.html?p=1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CALCA TESS</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tess-04-26-05-287-005.html</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
